--- a/DATA/IsoData/PUUMIsoData.xlsx
+++ b/DATA/IsoData/PUUMIsoData.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="154">
   <si>
     <t xml:space="preserve">uid</t>
   </si>
@@ -65,7 +65,10 @@
     <t xml:space="preserve">publicationDate</t>
   </si>
   <si>
-    <t xml:space="preserve">ffd2de3f-a536-4f01-8fa3-259658fabbfe</t>
+    <t xml:space="preserve">release</t>
+  </si>
+  <si>
+    <t xml:space="preserve">664f88ae-ca32-400f-94b8-1fb761fd6c0f</t>
   </si>
   <si>
     <t xml:space="preserve">PUUM.TOS.wet.deposition</t>
@@ -86,10 +89,13 @@
     <t xml:space="preserve">OK</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T171135Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">f3cc62f7-5f43-42b9-8a63-3f160bd79c32</t>
+    <t xml:space="preserve">20210112T145422Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RELEASE-2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">82c3e81a-c836-4a95-9af5-e4d173ae19a1</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.PUUM.20190701.1136</t>
@@ -101,10 +107,10 @@
     <t xml:space="preserve">A00000066739</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T171059Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4d4ee88e-ec0f-47f7-8f47-5c5debc4a257</t>
+    <t xml:space="preserve">20210112T145426Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">e1226c0b-865d-4d7a-951e-37efcd16439d</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.PUUM.20190717.1115</t>
@@ -116,7 +122,7 @@
     <t xml:space="preserve">A00000066614</t>
   </si>
   <si>
-    <t xml:space="preserve">4f587a8a-aaeb-4ba7-9221-3131d9c760c8</t>
+    <t xml:space="preserve">ce20145a-ca30-4f0e-8c74-09369cf2cd32</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.PUUM.20190730.1000</t>
@@ -128,7 +134,7 @@
     <t xml:space="preserve">A00000066616</t>
   </si>
   <si>
-    <t xml:space="preserve">f6336a11-5a12-4b34-8d4e-55d61eaaaab7</t>
+    <t xml:space="preserve">a6120986-54c4-4636-b082-d63df6546e86</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.PUUM.20190812.1030</t>
@@ -140,10 +146,10 @@
     <t xml:space="preserve">A00000066617</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T171027Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">e3880a0a-ece5-4e1b-b51e-22715a9a7736</t>
+    <t xml:space="preserve">20210112T162454Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f5551946-2526-4688-9a18-f770b53a6e06</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.PUUM.20190828.1030</t>
@@ -155,7 +161,7 @@
     <t xml:space="preserve">A00000066631</t>
   </si>
   <si>
-    <t xml:space="preserve">7715c371-266f-47c8-a30a-4aa22583e29e</t>
+    <t xml:space="preserve">d7db1f39-a492-49a3-8522-5d62d50602b6</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.PUUM.20190910.1200</t>
@@ -167,10 +173,10 @@
     <t xml:space="preserve">A00000066620</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T170951Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dc481bb8-0e0e-47e1-942e-54aad9338c69</t>
+    <t xml:space="preserve">20210112T160838Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43296505-15b0-45f0-90a4-67ca354691ba</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.PUUM.20190927.1115</t>
@@ -182,7 +188,7 @@
     <t xml:space="preserve">A00000066632</t>
   </si>
   <si>
-    <t xml:space="preserve">079a05b8-7910-4117-9c55-a2f9f761298f</t>
+    <t xml:space="preserve">02cc069d-f3bf-49d2-b842-9cab8589b19d</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.PUUM.20191010.1215</t>
@@ -194,10 +200,10 @@
     <t xml:space="preserve">A00000066634</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T170913Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a92438b0-8cef-4fdd-b1b6-d2a6d67aecd0</t>
+    <t xml:space="preserve">20210112T160912Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1c6511bd-35c1-4485-b3cd-c9d344f5e783</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.PUUM.20191022.0100</t>
@@ -209,7 +215,7 @@
     <t xml:space="preserve">A00000066636</t>
   </si>
   <si>
-    <t xml:space="preserve">9185424a-7b21-48f9-864f-ec5a4014f3e2</t>
+    <t xml:space="preserve">82b4a155-c80e-4f73-9ce4-f7b7788e1602</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.PUUM.20191106.1100</t>
@@ -221,10 +227,10 @@
     <t xml:space="preserve">A00000066638</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T170852Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">96706e07-9ba8-4eed-b924-d8e910829d99</t>
+    <t xml:space="preserve">20210112T164733Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">86886aa7-6062-4065-95b8-5e7b5b39e1a3</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.PUUM.20191125.1035</t>
@@ -236,7 +242,7 @@
     <t xml:space="preserve">A00000066654</t>
   </si>
   <si>
-    <t xml:space="preserve">661645c6-f46a-4088-8187-63091f74f2c1</t>
+    <t xml:space="preserve">92a60163-2306-463b-8484-ffbb5638077d</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.PUUM.20191209.1500</t>
@@ -248,7 +254,226 @@
     <t xml:space="preserve">A00000066652</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T170821Z</t>
+    <t xml:space="preserve">20210112T164454Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">e0e0a289-2395-45e1-92c1-cfe61fa2f725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.PUUM.20191217.1150</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.PUUM.20191217.1150.ISO.TEST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A00000066650</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8aa76d71-cbca-4c6b-8e72-895ffb1319e1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.PUUM.20200102.1200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.PUUM.20200102.1200.ISO.TEST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A00000066648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20210112T145652Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PROVISIONAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ba30914c-afd5-41ad-943b-34d8c5275e80</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.PUUM.20200113.0120</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.PUUM.20200113.0120.ISO.TEST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A00000127942</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d852da98-f3fe-40c7-849d-51b85129a33a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.PUUM.20200128.1058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.PUUM.20200128.1058.ISO.TEST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A00000127944</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51956535-f06b-4807-9cdc-407eeacd129d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.PUUM.20200219.1330</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.PUUM.20200219.1330.ISO.TEST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A00000066689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20210112T145418Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b1424315-c7a9-4125-a47b-fea68ae940b5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.PUUM.20200225.1130</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.PUUM.20200225.1130.ISO.TEST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A00000066670</t>
+  </si>
+  <si>
+    <t xml:space="preserve">276b53ab-01f0-482f-b566-0bae0d152b3d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.PUUM.20200310.1030</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.PUUM.20200310.1030.ISO.TEST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A00000066688</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20210112T145541Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3630e90b-8215-4a37-ac41-370f0501321b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.PUUM.20200618.1021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.PUUM.20200618.1021.ISO.TEST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A00000066668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20210112T145332Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">391aa1b9-d946-4b9a-bdfe-a90d9248e117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.PUUM.20200701.0900</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.PUUM.20200701.0900.ISO.TEST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A00000127712</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20210112T164152Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8e95879a-dc8e-4ba1-a069-97d55bb070fa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.PUUM.20200716.1212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.PUUM.20200716.1212.ISO.TEST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A00000127718</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4a916e20-5682-4212-a69f-9efbac814d26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.PUUM.20200728.0930</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.PUUM.20200728.0930.ISO.TEST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A00000127690</t>
+  </si>
+  <si>
+    <t xml:space="preserve">809476c0-6c5f-4071-87ec-4d06fcebbe61</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.PUUM.20200812.0944</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.PUUM.20200812.0944.ISO.TEST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A00000066666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20210112T163053Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d37eb6d6-94df-419c-a041-49f1eab2c172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.PUUM.20200825.0945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.PUUM.20200825.0945.ISO.TEST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A00000311038</t>
+  </si>
+  <si>
+    <t xml:space="preserve">673f7dad-9982-4f77-a486-96ccdf86951b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.PUUM.20200909.1000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.PUUM.20200909.1000.ISO.TEST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A00000066667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20210112T163038Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">106c0ebc-31e8-4ba2-a6c8-a5f7cc02eebc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.PUUM.20200922.0845</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.PUUM.20200922.0845.ISO.TEST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A00000066685</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d1a3b325-2b10-4c52-b617-cca232f5567f</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.PUUM.20201006.1036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.PUUM.20201006.1036.ISO.TEST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A00000066723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20210201T154608Z</t>
   </si>
 </sst>
 </file>
@@ -586,7 +811,7 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -640,23 +865,26 @@
       <c r="Q1" t="s">
         <v>16</v>
       </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D2"/>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G2" s="1" t="n">
         <v>43620.9305555556</v>
@@ -677,35 +905,38 @@
         <v>0.12</v>
       </c>
       <c r="M2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N2" s="1" t="n">
         <v>43720.75</v>
       </c>
       <c r="O2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P2"/>
       <c r="Q2" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="R2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D3"/>
       <c r="E3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G3" s="1" t="n">
         <v>43636.8527777778</v>
@@ -726,35 +957,38 @@
         <v>0.118</v>
       </c>
       <c r="M3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N3" s="1" t="n">
         <v>43720.75</v>
       </c>
       <c r="O3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P3"/>
       <c r="Q3" t="s">
-        <v>29</v>
+        <v>31</v>
+      </c>
+      <c r="R3" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D4"/>
       <c r="E4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G4" s="1" t="n">
         <v>43647.9284722222</v>
@@ -775,35 +1009,38 @@
         <v>0.084</v>
       </c>
       <c r="M4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N4" s="1" t="n">
         <v>43720.75</v>
       </c>
       <c r="O4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P4"/>
       <c r="Q4" t="s">
-        <v>29</v>
+        <v>31</v>
+      </c>
+      <c r="R4" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D5"/>
       <c r="E5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G5" s="1" t="n">
         <v>43662.9270833333</v>
@@ -824,35 +1061,38 @@
         <v>0.179</v>
       </c>
       <c r="M5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N5" s="1" t="n">
         <v>43720.75</v>
       </c>
       <c r="O5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P5"/>
       <c r="Q5" t="s">
-        <v>29</v>
+        <v>31</v>
+      </c>
+      <c r="R5" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D6"/>
       <c r="E6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G6" s="1" t="n">
         <v>43676.8472222222</v>
@@ -873,35 +1113,38 @@
         <v>0.072</v>
       </c>
       <c r="M6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N6" s="1" t="n">
         <v>43720.75</v>
       </c>
       <c r="O6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P6"/>
       <c r="Q6" t="s">
-        <v>42</v>
+        <v>44</v>
+      </c>
+      <c r="R6" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D7"/>
       <c r="E7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G7" s="1" t="n">
         <v>43689.875</v>
@@ -922,35 +1165,38 @@
         <v>0.197</v>
       </c>
       <c r="M7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N7" s="1" t="n">
         <v>43795.7916666667</v>
       </c>
       <c r="O7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P7"/>
       <c r="Q7" t="s">
-        <v>42</v>
+        <v>44</v>
+      </c>
+      <c r="R7" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D8"/>
       <c r="E8" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F8" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G8" s="1" t="n">
         <v>43705.875</v>
@@ -971,35 +1217,38 @@
         <v>0.098</v>
       </c>
       <c r="M8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N8" s="1" t="n">
         <v>43795.7916666667</v>
       </c>
       <c r="O8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P8"/>
       <c r="Q8" t="s">
-        <v>51</v>
+        <v>53</v>
+      </c>
+      <c r="R8" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D9"/>
       <c r="E9" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F9" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G9" s="1" t="n">
         <v>43718.9375</v>
@@ -1020,35 +1269,38 @@
         <v>0.076</v>
       </c>
       <c r="M9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N9" s="1" t="n">
         <v>43795.7916666667</v>
       </c>
       <c r="O9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P9"/>
       <c r="Q9" t="s">
-        <v>51</v>
+        <v>53</v>
+      </c>
+      <c r="R9" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D10"/>
       <c r="E10" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F10" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G10" s="1" t="n">
         <v>43735.8854166667</v>
@@ -1069,35 +1321,38 @@
         <v>0.395</v>
       </c>
       <c r="M10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N10" s="1" t="n">
         <v>43837.7916666667</v>
       </c>
       <c r="O10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P10"/>
       <c r="Q10" t="s">
-        <v>60</v>
+        <v>62</v>
+      </c>
+      <c r="R10" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D11"/>
       <c r="E11" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F11" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G11" s="1" t="n">
         <v>43748.9375</v>
@@ -1118,35 +1373,38 @@
         <v>0.388</v>
       </c>
       <c r="M11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N11" s="1" t="n">
         <v>43837.7916666667</v>
       </c>
       <c r="O11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P11"/>
       <c r="Q11" t="s">
-        <v>60</v>
+        <v>62</v>
+      </c>
+      <c r="R11" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C12" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D12"/>
       <c r="E12" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F12" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G12" s="1" t="n">
         <v>43760.9722222222</v>
@@ -1167,35 +1425,38 @@
         <v>0.481</v>
       </c>
       <c r="M12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N12" s="1" t="n">
         <v>43837.7916666667</v>
       </c>
       <c r="O12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P12"/>
       <c r="Q12" t="s">
-        <v>69</v>
+        <v>71</v>
+      </c>
+      <c r="R12" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C13" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D13"/>
       <c r="E13" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F13" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G13" s="1" t="n">
         <v>43775.875</v>
@@ -1216,35 +1477,38 @@
         <v>0.302</v>
       </c>
       <c r="M13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N13" s="1" t="n">
         <v>43837.7916666667</v>
       </c>
       <c r="O13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P13"/>
       <c r="Q13" t="s">
-        <v>69</v>
+        <v>71</v>
+      </c>
+      <c r="R13" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B14" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C14" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D14"/>
       <c r="E14" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F14" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G14" s="1" t="n">
         <v>43794.8645833333</v>
@@ -1265,17 +1529,852 @@
         <v>0.289</v>
       </c>
       <c r="M14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N14" s="1" t="n">
         <v>43837.7916666667</v>
       </c>
       <c r="O14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P14"/>
       <c r="Q14" t="s">
-        <v>78</v>
+        <v>80</v>
+      </c>
+      <c r="R14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>81</v>
+      </c>
+      <c r="B15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" t="s">
+        <v>82</v>
+      </c>
+      <c r="D15"/>
+      <c r="E15" t="s">
+        <v>83</v>
+      </c>
+      <c r="F15" t="s">
+        <v>84</v>
+      </c>
+      <c r="G15" s="1" t="n">
+        <v>43809.0486111111</v>
+      </c>
+      <c r="H15" s="1" t="n">
+        <v>43816.9097222222</v>
+      </c>
+      <c r="I15" t="n">
+        <v>-13.021</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-90.722</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0.103</v>
+      </c>
+      <c r="M15" t="s">
+        <v>23</v>
+      </c>
+      <c r="N15" s="1" t="n">
+        <v>43973.75</v>
+      </c>
+      <c r="O15" t="s">
+        <v>24</v>
+      </c>
+      <c r="P15"/>
+      <c r="Q15" t="s">
+        <v>80</v>
+      </c>
+      <c r="R15" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>85</v>
+      </c>
+      <c r="B16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" t="s">
+        <v>86</v>
+      </c>
+      <c r="D16"/>
+      <c r="E16" t="s">
+        <v>87</v>
+      </c>
+      <c r="F16" t="s">
+        <v>88</v>
+      </c>
+      <c r="G16" s="1" t="n">
+        <v>43816.9201388889</v>
+      </c>
+      <c r="H16" s="1" t="n">
+        <v>43832.9166666667</v>
+      </c>
+      <c r="I16" t="n">
+        <v>-12.908</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-90.2</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.023</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0.084</v>
+      </c>
+      <c r="M16" t="s">
+        <v>23</v>
+      </c>
+      <c r="N16" s="1" t="n">
+        <v>43973.75</v>
+      </c>
+      <c r="O16" t="s">
+        <v>24</v>
+      </c>
+      <c r="P16"/>
+      <c r="Q16" t="s">
+        <v>89</v>
+      </c>
+      <c r="R16" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>91</v>
+      </c>
+      <c r="B17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" t="s">
+        <v>92</v>
+      </c>
+      <c r="D17"/>
+      <c r="E17" t="s">
+        <v>93</v>
+      </c>
+      <c r="F17" t="s">
+        <v>94</v>
+      </c>
+      <c r="G17" s="1" t="n">
+        <v>43832.9305555556</v>
+      </c>
+      <c r="H17" s="1" t="n">
+        <v>43843.4722222222</v>
+      </c>
+      <c r="I17" t="n">
+        <v>-4.202</v>
+      </c>
+      <c r="J17" t="n">
+        <v>-18.268</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.036</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0.071</v>
+      </c>
+      <c r="M17" t="s">
+        <v>23</v>
+      </c>
+      <c r="N17" s="1" t="n">
+        <v>43973.75</v>
+      </c>
+      <c r="O17" t="s">
+        <v>24</v>
+      </c>
+      <c r="P17"/>
+      <c r="Q17" t="s">
+        <v>89</v>
+      </c>
+      <c r="R17" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>95</v>
+      </c>
+      <c r="B18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" t="s">
+        <v>96</v>
+      </c>
+      <c r="D18"/>
+      <c r="E18" t="s">
+        <v>97</v>
+      </c>
+      <c r="F18" t="s">
+        <v>98</v>
+      </c>
+      <c r="G18" s="1" t="n">
+        <v>43853.0416666667</v>
+      </c>
+      <c r="H18" s="1" t="n">
+        <v>43858.8736111111</v>
+      </c>
+      <c r="I18" t="n">
+        <v>-4.319</v>
+      </c>
+      <c r="J18" t="n">
+        <v>-15.189</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.017</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0.132</v>
+      </c>
+      <c r="M18" t="s">
+        <v>23</v>
+      </c>
+      <c r="N18" s="1" t="n">
+        <v>43973.75</v>
+      </c>
+      <c r="O18" t="s">
+        <v>24</v>
+      </c>
+      <c r="P18"/>
+      <c r="Q18" t="s">
+        <v>89</v>
+      </c>
+      <c r="R18" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>99</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" t="s">
+        <v>100</v>
+      </c>
+      <c r="D19"/>
+      <c r="E19" t="s">
+        <v>101</v>
+      </c>
+      <c r="F19" t="s">
+        <v>102</v>
+      </c>
+      <c r="G19" s="1" t="n">
+        <v>43858.875</v>
+      </c>
+      <c r="H19" s="1" t="n">
+        <v>43880.9791666667</v>
+      </c>
+      <c r="I19" t="n">
+        <v>-6.993</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-44.725</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.018</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0.346</v>
+      </c>
+      <c r="M19" t="s">
+        <v>23</v>
+      </c>
+      <c r="N19" s="1" t="n">
+        <v>43977.75</v>
+      </c>
+      <c r="O19" t="s">
+        <v>24</v>
+      </c>
+      <c r="P19"/>
+      <c r="Q19" t="s">
+        <v>103</v>
+      </c>
+      <c r="R19" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>104</v>
+      </c>
+      <c r="B20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" t="s">
+        <v>105</v>
+      </c>
+      <c r="D20"/>
+      <c r="E20" t="s">
+        <v>106</v>
+      </c>
+      <c r="F20" t="s">
+        <v>107</v>
+      </c>
+      <c r="G20" s="1" t="n">
+        <v>43880.9826388889</v>
+      </c>
+      <c r="H20" s="1" t="n">
+        <v>43886.8958333333</v>
+      </c>
+      <c r="I20" t="n">
+        <v>-3.369</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-7.975</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0.211</v>
+      </c>
+      <c r="M20" t="s">
+        <v>23</v>
+      </c>
+      <c r="N20" s="1" t="n">
+        <v>44025.75</v>
+      </c>
+      <c r="O20" t="s">
+        <v>24</v>
+      </c>
+      <c r="P20"/>
+      <c r="Q20" t="s">
+        <v>103</v>
+      </c>
+      <c r="R20" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>108</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" t="s">
+        <v>109</v>
+      </c>
+      <c r="D21"/>
+      <c r="E21" t="s">
+        <v>110</v>
+      </c>
+      <c r="F21" t="s">
+        <v>111</v>
+      </c>
+      <c r="G21" s="1" t="n">
+        <v>43886.9027777778</v>
+      </c>
+      <c r="H21" s="1" t="n">
+        <v>43900.8541666667</v>
+      </c>
+      <c r="I21" t="n">
+        <v>-5.234</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-25.136</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="M21" t="s">
+        <v>23</v>
+      </c>
+      <c r="N21" s="1" t="n">
+        <v>44022.75</v>
+      </c>
+      <c r="O21" t="s">
+        <v>24</v>
+      </c>
+      <c r="P21"/>
+      <c r="Q21" t="s">
+        <v>112</v>
+      </c>
+      <c r="R21" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>113</v>
+      </c>
+      <c r="B22" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" t="s">
+        <v>114</v>
+      </c>
+      <c r="D22"/>
+      <c r="E22" t="s">
+        <v>115</v>
+      </c>
+      <c r="F22" t="s">
+        <v>116</v>
+      </c>
+      <c r="G22" s="1" t="n">
+        <v>43986.8506944444</v>
+      </c>
+      <c r="H22" s="1" t="n">
+        <v>44000.8479166667</v>
+      </c>
+      <c r="I22" t="n">
+        <v>-2.719</v>
+      </c>
+      <c r="J22" t="n">
+        <v>-8.301</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.019</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="M22" t="s">
+        <v>23</v>
+      </c>
+      <c r="N22" s="1" t="n">
+        <v>44022.75</v>
+      </c>
+      <c r="O22" t="s">
+        <v>24</v>
+      </c>
+      <c r="P22"/>
+      <c r="Q22" t="s">
+        <v>117</v>
+      </c>
+      <c r="R22" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>118</v>
+      </c>
+      <c r="B23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23" t="s">
+        <v>119</v>
+      </c>
+      <c r="D23"/>
+      <c r="E23" t="s">
+        <v>120</v>
+      </c>
+      <c r="F23" t="s">
+        <v>121</v>
+      </c>
+      <c r="G23" s="1" t="n">
+        <v>44000.8631944444</v>
+      </c>
+      <c r="H23" s="1" t="n">
+        <v>44013.7916666667</v>
+      </c>
+      <c r="I23" t="n">
+        <v>-3.857</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-17.823</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0.018</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="M23" t="s">
+        <v>23</v>
+      </c>
+      <c r="N23" s="1" t="n">
+        <v>44123.75</v>
+      </c>
+      <c r="O23" t="s">
+        <v>24</v>
+      </c>
+      <c r="P23"/>
+      <c r="Q23" t="s">
+        <v>122</v>
+      </c>
+      <c r="R23" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>123</v>
+      </c>
+      <c r="B24" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24" t="s">
+        <v>124</v>
+      </c>
+      <c r="D24"/>
+      <c r="E24" t="s">
+        <v>125</v>
+      </c>
+      <c r="F24" t="s">
+        <v>126</v>
+      </c>
+      <c r="G24" s="1" t="n">
+        <v>44013.7916666667</v>
+      </c>
+      <c r="H24" s="1" t="n">
+        <v>44028.925</v>
+      </c>
+      <c r="I24" t="n">
+        <v>-3.65</v>
+      </c>
+      <c r="J24" t="n">
+        <v>-16.292</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0.021</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0.023</v>
+      </c>
+      <c r="M24" t="s">
+        <v>23</v>
+      </c>
+      <c r="N24" s="1" t="n">
+        <v>44123.75</v>
+      </c>
+      <c r="O24" t="s">
+        <v>24</v>
+      </c>
+      <c r="P24"/>
+      <c r="Q24" t="s">
+        <v>122</v>
+      </c>
+      <c r="R24" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>127</v>
+      </c>
+      <c r="B25" t="s">
+        <v>19</v>
+      </c>
+      <c r="C25" t="s">
+        <v>128</v>
+      </c>
+      <c r="D25"/>
+      <c r="E25" t="s">
+        <v>129</v>
+      </c>
+      <c r="F25" t="s">
+        <v>130</v>
+      </c>
+      <c r="G25" s="1" t="n">
+        <v>44028.925</v>
+      </c>
+      <c r="H25" s="1" t="n">
+        <v>44040.8125</v>
+      </c>
+      <c r="I25" t="n">
+        <v>-6.327</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-37.224</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.019</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="M25" t="s">
+        <v>23</v>
+      </c>
+      <c r="N25" s="1" t="n">
+        <v>44123.75</v>
+      </c>
+      <c r="O25" t="s">
+        <v>24</v>
+      </c>
+      <c r="P25"/>
+      <c r="Q25" t="s">
+        <v>122</v>
+      </c>
+      <c r="R25" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>131</v>
+      </c>
+      <c r="B26" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" t="s">
+        <v>132</v>
+      </c>
+      <c r="D26"/>
+      <c r="E26" t="s">
+        <v>133</v>
+      </c>
+      <c r="F26" t="s">
+        <v>134</v>
+      </c>
+      <c r="G26" s="1" t="n">
+        <v>44040.8333333333</v>
+      </c>
+      <c r="H26" s="1" t="n">
+        <v>44055.8222222222</v>
+      </c>
+      <c r="I26" t="n">
+        <v>-3.203</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-14.666</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.036</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0.169</v>
+      </c>
+      <c r="M26" t="s">
+        <v>23</v>
+      </c>
+      <c r="N26" s="1" t="n">
+        <v>44123.75</v>
+      </c>
+      <c r="O26" t="s">
+        <v>24</v>
+      </c>
+      <c r="P26"/>
+      <c r="Q26" t="s">
+        <v>135</v>
+      </c>
+      <c r="R26" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>136</v>
+      </c>
+      <c r="B27" t="s">
+        <v>19</v>
+      </c>
+      <c r="C27" t="s">
+        <v>137</v>
+      </c>
+      <c r="D27"/>
+      <c r="E27" t="s">
+        <v>138</v>
+      </c>
+      <c r="F27" t="s">
+        <v>139</v>
+      </c>
+      <c r="G27" s="1" t="n">
+        <v>44055.8333333333</v>
+      </c>
+      <c r="H27" s="1" t="n">
+        <v>44068.8229166667</v>
+      </c>
+      <c r="I27" t="n">
+        <v>-3.63</v>
+      </c>
+      <c r="J27" t="n">
+        <v>-15.808</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0.022</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0.123</v>
+      </c>
+      <c r="M27" t="s">
+        <v>23</v>
+      </c>
+      <c r="N27" s="1" t="n">
+        <v>44148.7916666667</v>
+      </c>
+      <c r="O27" t="s">
+        <v>24</v>
+      </c>
+      <c r="P27"/>
+      <c r="Q27" t="s">
+        <v>135</v>
+      </c>
+      <c r="R27" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>140</v>
+      </c>
+      <c r="B28" t="s">
+        <v>19</v>
+      </c>
+      <c r="C28" t="s">
+        <v>141</v>
+      </c>
+      <c r="D28"/>
+      <c r="E28" t="s">
+        <v>142</v>
+      </c>
+      <c r="F28" t="s">
+        <v>143</v>
+      </c>
+      <c r="G28" s="1" t="n">
+        <v>44068.8229166667</v>
+      </c>
+      <c r="H28" s="1" t="n">
+        <v>44083.8333333333</v>
+      </c>
+      <c r="I28" t="n">
+        <v>-2.959</v>
+      </c>
+      <c r="J28" t="n">
+        <v>-8.307</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0.024</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0.117</v>
+      </c>
+      <c r="M28" t="s">
+        <v>23</v>
+      </c>
+      <c r="N28" s="1" t="n">
+        <v>44148.7916666667</v>
+      </c>
+      <c r="O28" t="s">
+        <v>24</v>
+      </c>
+      <c r="P28"/>
+      <c r="Q28" t="s">
+        <v>144</v>
+      </c>
+      <c r="R28" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>145</v>
+      </c>
+      <c r="B29" t="s">
+        <v>19</v>
+      </c>
+      <c r="C29" t="s">
+        <v>146</v>
+      </c>
+      <c r="D29"/>
+      <c r="E29" t="s">
+        <v>147</v>
+      </c>
+      <c r="F29" t="s">
+        <v>148</v>
+      </c>
+      <c r="G29" s="1" t="n">
+        <v>44083.8354166667</v>
+      </c>
+      <c r="H29" s="1" t="n">
+        <v>44096.78125</v>
+      </c>
+      <c r="I29" t="n">
+        <v>-2.415</v>
+      </c>
+      <c r="J29" t="n">
+        <v>-5.675</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0.059</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0.241</v>
+      </c>
+      <c r="M29" t="s">
+        <v>23</v>
+      </c>
+      <c r="N29" s="1" t="n">
+        <v>44148.7916666667</v>
+      </c>
+      <c r="O29" t="s">
+        <v>24</v>
+      </c>
+      <c r="P29"/>
+      <c r="Q29" t="s">
+        <v>144</v>
+      </c>
+      <c r="R29" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>149</v>
+      </c>
+      <c r="B30" t="s">
+        <v>19</v>
+      </c>
+      <c r="C30" t="s">
+        <v>150</v>
+      </c>
+      <c r="D30"/>
+      <c r="E30" t="s">
+        <v>151</v>
+      </c>
+      <c r="F30" t="s">
+        <v>152</v>
+      </c>
+      <c r="G30" s="1" t="n">
+        <v>44096.7847222222</v>
+      </c>
+      <c r="H30" s="1" t="n">
+        <v>44110.8583333333</v>
+      </c>
+      <c r="I30" t="n">
+        <v>-5.508</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-32.58</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0.131</v>
+      </c>
+      <c r="M30" t="s">
+        <v>23</v>
+      </c>
+      <c r="N30" s="1" t="n">
+        <v>44148.7916666667</v>
+      </c>
+      <c r="O30" t="s">
+        <v>24</v>
+      </c>
+      <c r="P30"/>
+      <c r="Q30" t="s">
+        <v>153</v>
+      </c>
+      <c r="R30" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>
